--- a/Documentacion/Graficos.xlsx
+++ b/Documentacion/Graficos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Documents\GitHub\Grafos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADEF0E-0C3D-4ED3-AFFE-FC6F655E0E1E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736ED85-8822-44DA-9FA6-5EF33C710F55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graficos con porcentajes" sheetId="1" r:id="rId1"/>
+    <sheet name="Numero de corrida minimo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Grafo Aleatorio 40% de Adyacencia</t>
   </si>
@@ -56,13 +57,22 @@
   <si>
     <t>Grafo Regular 75% de Adyacencia</t>
   </si>
+  <si>
+    <t>Corrida que aparecio por primera vez</t>
+  </si>
+  <si>
+    <t>Menor Cantidad de Colores</t>
+  </si>
+  <si>
+    <t>Algoritmo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -96,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +137,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -292,12 +314,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,6 +374,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -326,23 +394,44 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{F14B2390-0FBB-416C-AC4E-881F8B63CC7A}"/>
@@ -446,7 +535,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'Graficos con porcentajes'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -469,7 +558,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:f>'Graficos con porcentajes'!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -505,7 +594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$11</c:f>
+              <c:f>'Graficos con porcentajes'!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -551,7 +640,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'Graficos con porcentajes'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -574,7 +663,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:f>'Graficos con porcentajes'!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -610,7 +699,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:f>'Graficos con porcentajes'!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -656,7 +745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'Graficos con porcentajes'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -679,7 +768,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$11</c:f>
+              <c:f>'Graficos con porcentajes'!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -715,7 +804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:f>'Graficos con porcentajes'!$D$3:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1031,7 +1120,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$23</c:f>
+              <c:f>'Graficos con porcentajes'!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1054,7 +1143,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$35</c:f>
+              <c:f>'Graficos con porcentajes'!$A$24:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1099,7 +1188,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$24:$B$35</c:f>
+              <c:f>'Graficos con porcentajes'!$B$24:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1154,7 +1243,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$23</c:f>
+              <c:f>'Graficos con porcentajes'!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1177,7 +1266,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$35</c:f>
+              <c:f>'Graficos con porcentajes'!$A$24:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1222,7 +1311,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$35</c:f>
+              <c:f>'Graficos con porcentajes'!$C$24:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1277,7 +1366,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$23</c:f>
+              <c:f>'Graficos con porcentajes'!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1300,7 +1389,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$24:$A$35</c:f>
+              <c:f>'Graficos con porcentajes'!$A$24:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1345,7 +1434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$24:$D$35</c:f>
+              <c:f>'Graficos con porcentajes'!$D$24:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1672,7 +1761,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$42</c:f>
+              <c:f>'Graficos con porcentajes'!$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1695,7 +1784,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$43:$A$62</c:f>
+              <c:f>'Graficos con porcentajes'!$A$43:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1764,7 +1853,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$43:$B$62</c:f>
+              <c:f>'Graficos con porcentajes'!$B$43:$B$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1843,7 +1932,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$42</c:f>
+              <c:f>'Graficos con porcentajes'!$C$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1866,7 +1955,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$43:$A$62</c:f>
+              <c:f>'Graficos con porcentajes'!$A$43:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1935,7 +2024,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$43:$C$62</c:f>
+              <c:f>'Graficos con porcentajes'!$C$43:$C$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2014,7 +2103,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$42</c:f>
+              <c:f>'Graficos con porcentajes'!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2037,7 +2126,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$43:$A$62</c:f>
+              <c:f>'Graficos con porcentajes'!$A$43:$A$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2106,7 +2195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$43:$D$62</c:f>
+              <c:f>'Graficos con porcentajes'!$D$43:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2455,7 +2544,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$69</c:f>
+              <c:f>'Graficos con porcentajes'!$B$69</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2478,7 +2567,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$70:$A$84</c:f>
+              <c:f>'Graficos con porcentajes'!$A$70:$A$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2532,7 +2621,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$70:$B$84</c:f>
+              <c:f>'Graficos con porcentajes'!$B$70:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2707,6 +2796,380 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="422714335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Grafo Regular 75% de Adyacencia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Graficos con porcentajes'!$B$89</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coloreo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Graficos con porcentajes'!$A$90:$A$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>509</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Graficos con porcentajes'!$B$90:$B$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1346</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8163-4F22-B7EF-C5E26659AA18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="181674559"/>
+        <c:axId val="177816991"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="181674559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="177816991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="177816991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="181674559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2915,6 +3378,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4464,6 +4967,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5120,6 +6139,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3211A27F-A097-4709-A707-0CA99BC48F27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5427,8 +6482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD1E85-97CD-4BC2-AE1A-F439378BABC2}">
   <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5440,12 +6495,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
@@ -5588,12 +6643,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
@@ -5778,12 +6833,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="19"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
@@ -6092,144 +7147,144 @@
       <c r="D64" s="7"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
+      <c r="A68" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="26"/>
+      <c r="B68" s="30"/>
     </row>
     <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="23">
+      <c r="A70" s="20">
         <v>334</v>
       </c>
-      <c r="B70" s="22">
+      <c r="B70" s="19">
         <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="23">
+      <c r="A71" s="20">
         <v>335</v>
       </c>
-      <c r="B71" s="20">
+      <c r="B71" s="17">
         <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="23">
+      <c r="A72" s="20">
         <v>336</v>
       </c>
-      <c r="B72" s="20">
+      <c r="B72" s="17">
         <v>1455</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="23">
+      <c r="A73" s="20">
         <v>337</v>
       </c>
-      <c r="B73" s="20">
+      <c r="B73" s="17">
         <v>2061</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="23">
+      <c r="A74" s="20">
         <v>338</v>
       </c>
-      <c r="B74" s="20">
+      <c r="B74" s="17">
         <v>2051</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="23">
+      <c r="A75" s="20">
         <v>339</v>
       </c>
-      <c r="B75" s="20">
+      <c r="B75" s="17">
         <v>1522</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="23">
+      <c r="A76" s="20">
         <v>340</v>
       </c>
-      <c r="B76" s="20">
+      <c r="B76" s="17">
         <v>1076</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="23">
+      <c r="A77" s="20">
         <v>341</v>
       </c>
-      <c r="B77" s="20">
+      <c r="B77" s="17">
         <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="23">
+      <c r="A78" s="20">
         <v>342</v>
       </c>
-      <c r="B78" s="20">
+      <c r="B78" s="17">
         <v>343</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="23">
+      <c r="A79" s="20">
         <v>343</v>
       </c>
-      <c r="B79" s="20">
+      <c r="B79" s="17">
         <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="23">
+      <c r="A80" s="20">
         <v>344</v>
       </c>
-      <c r="B80" s="20">
+      <c r="B80" s="17">
         <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="23">
+      <c r="A81" s="20">
         <v>345</v>
       </c>
-      <c r="B81" s="20">
+      <c r="B81" s="17">
         <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="23">
+      <c r="A82" s="20">
         <v>346</v>
       </c>
-      <c r="B82" s="20">
+      <c r="B82" s="17">
         <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="23">
+      <c r="A83" s="20">
         <v>347</v>
       </c>
-      <c r="B83" s="20">
+      <c r="B83" s="17">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="24">
+      <c r="A84" s="21">
         <v>348</v>
       </c>
-      <c r="B84" s="21">
+      <c r="B84" s="18">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B88" s="26"/>
+      <c r="B88" s="30"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
@@ -6240,7 +7295,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="29">
+      <c r="A90" s="24">
         <v>500</v>
       </c>
       <c r="B90" s="13">
@@ -6248,7 +7303,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="29">
+      <c r="A91" s="24">
         <v>501</v>
       </c>
       <c r="B91" s="14">
@@ -6256,7 +7311,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="29">
+      <c r="A92" s="24">
         <v>502</v>
       </c>
       <c r="B92" s="14">
@@ -6264,50 +7319,50 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="29">
+      <c r="A93" s="24">
         <v>503</v>
       </c>
-      <c r="B93" s="28">
+      <c r="B93" s="23">
         <v>2165</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="29">
+      <c r="A94" s="24">
         <v>504</v>
       </c>
-      <c r="B94" s="28">
+      <c r="B94" s="23">
         <v>1346</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="29">
+      <c r="A95" s="24">
         <v>505</v>
       </c>
-      <c r="B95" s="28">
+      <c r="B95" s="23">
         <v>782</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="29">
+      <c r="A96" s="24">
         <v>506</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B96" s="23">
         <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="29">
+      <c r="A97" s="24">
         <v>507</v>
       </c>
-      <c r="B97" s="28">
+      <c r="B97" s="23">
         <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="29">
+      <c r="A98" s="24">
         <v>508</v>
       </c>
-      <c r="B98" s="28">
+      <c r="B98" s="23">
         <v>79</v>
       </c>
     </row>
@@ -6316,7 +7371,7 @@
         <v>509</v>
       </c>
       <c r="B99" s="14">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -6344,8 +7399,8 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="30">
-        <v>514</v>
+      <c r="A103" s="25">
+        <v>513</v>
       </c>
       <c r="B103" s="15">
         <v>1</v>
@@ -6360,7 +7415,7 @@
       <c r="B105" s="7"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="28"/>
+      <c r="B115" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6374,4 +7429,247 @@
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DD90B-2628-4838-A9AC-E6F0D406D61E}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32">
+        <v>63</v>
+      </c>
+      <c r="C3" s="33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36">
+        <v>63</v>
+      </c>
+      <c r="C4" s="35">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32">
+        <v>63</v>
+      </c>
+      <c r="C5" s="33">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32">
+        <v>98</v>
+      </c>
+      <c r="C10" s="33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="32">
+        <v>98</v>
+      </c>
+      <c r="C11" s="35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="32">
+        <v>98</v>
+      </c>
+      <c r="C12" s="33">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="43"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="32">
+        <v>194</v>
+      </c>
+      <c r="C17" s="33">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="32">
+        <v>198</v>
+      </c>
+      <c r="C18" s="35">
+        <v>6675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="32">
+        <v>197</v>
+      </c>
+      <c r="C19" s="33">
+        <v>6615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="43"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="B23" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="32">
+        <v>334</v>
+      </c>
+      <c r="C24" s="33">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="43"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="32">
+        <v>500</v>
+      </c>
+      <c r="C29" s="33">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documentacion/Graficos.xlsx
+++ b/Documentacion/Graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Documents\GitHub\Grafos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736ED85-8822-44DA-9FA6-5EF33C710F55}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBF3AF-FD80-4A30-A1D8-1F9C16E75EA2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos con porcentajes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
   <si>
     <t>Grafo Aleatorio 40% de Adyacencia</t>
   </si>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -349,12 +349,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -362,9 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -385,6 +392,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -394,24 +420,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,18 +432,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{F14B2390-0FBB-416C-AC4E-881F8B63CC7A}"/>
@@ -1784,7 +1797,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$A$43:$A$62</c:f>
+              <c:f>'Graficos con porcentajes'!$A$44:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -1853,10 +1866,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$B$43:$B$62</c:f>
+              <c:f>'Graficos con porcentajes'!$B$43:$B$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1915,6 +1928,9 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1955,7 +1971,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$A$43:$A$62</c:f>
+              <c:f>'Graficos con porcentajes'!$A$44:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2024,68 +2040,71 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$C$43:$C$62</c:f>
+              <c:f>'Graficos con porcentajes'!$C$43:$C$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>282</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>531</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>858</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1239</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1475</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1497</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1385</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1101</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>673</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>430</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>224</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -2126,7 +2145,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$A$43:$A$62</c:f>
+              <c:f>'Graficos con porcentajes'!$A$44:$A$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2195,7 +2214,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$D$43:$D$62</c:f>
+              <c:f>'Graficos con porcentajes'!$D$44:$D$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -2544,7 +2563,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graficos con porcentajes'!$B$69</c:f>
+              <c:f>'Graficos con porcentajes'!$B$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2567,7 +2586,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$A$70:$A$84</c:f>
+              <c:f>'Graficos con porcentajes'!$A$69:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2621,7 +2640,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$B$70:$B$84</c:f>
+              <c:f>'Graficos con porcentajes'!$B$69:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2924,7 +2943,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Graficos con porcentajes'!$B$89</c:f>
+              <c:f>'Graficos con porcentajes'!$B$87</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2947,7 +2966,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$A$90:$A$103</c:f>
+              <c:f>'Graficos con porcentajes'!$A$88:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2998,7 +3017,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$B$90:$B$103</c:f>
+              <c:f>'Graficos con porcentajes'!$B$88:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -6110,16 +6129,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>709612</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6146,16 +6165,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6480,10 +6499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD1E85-97CD-4BC2-AE1A-F439378BABC2}">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:B88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L90" sqref="L90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6495,24 +6514,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6643,24 +6662,24 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -6668,13 +6687,13 @@
       <c r="A24" s="1">
         <v>98</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>3</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="11">
         <v>3</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6777,653 +6796,636 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <v>106</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>592</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <v>586</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="12">
         <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <v>107</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="12">
         <v>156</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>151</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="12">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <v>108</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="12">
         <v>27</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <v>30</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="12">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="9">
         <v>109</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="13">
         <v>4</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="13">
         <v>1</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D35" s="13">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="28"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="45">
+        <v>194</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0</v>
+      </c>
+      <c r="D43" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>197</v>
-      </c>
-      <c r="B43" s="13">
-        <v>1</v>
-      </c>
-      <c r="C43" s="13">
-        <v>1</v>
-      </c>
-      <c r="D43" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>198</v>
       </c>
       <c r="B44" s="4">
         <v>1</v>
       </c>
-      <c r="C44" s="4">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="C44" s="48">
+        <v>0</v>
+      </c>
+      <c r="D44" s="47">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>199</v>
+      <c r="A45" s="3">
+        <v>198</v>
       </c>
       <c r="B45" s="4">
         <v>6</v>
       </c>
       <c r="C45" s="4">
-        <v>14</v>
-      </c>
-      <c r="D45" s="4">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="D45" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>200</v>
+      <c r="A46" s="1">
+        <v>199</v>
       </c>
       <c r="B46" s="4">
         <v>13</v>
       </c>
-      <c r="C46" s="12">
-        <v>38</v>
+      <c r="C46" s="4">
+        <v>14</v>
       </c>
       <c r="D46" s="4">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>201</v>
+      <c r="A47" s="3">
+        <v>200</v>
       </c>
       <c r="B47" s="4">
         <v>34</v>
       </c>
-      <c r="C47" s="4">
-        <v>135</v>
-      </c>
-      <c r="D47" s="12">
-        <v>103</v>
+      <c r="C47" s="10">
+        <v>38</v>
+      </c>
+      <c r="D47" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>202</v>
+      <c r="A48" s="1">
+        <v>201</v>
       </c>
       <c r="B48" s="4">
         <v>96</v>
       </c>
       <c r="C48" s="4">
-        <v>282</v>
-      </c>
-      <c r="D48" s="12">
-        <v>220</v>
+        <v>135</v>
+      </c>
+      <c r="D48" s="10">
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>203</v>
+      <c r="A49" s="3">
+        <v>202</v>
       </c>
       <c r="B49" s="4">
         <v>233</v>
       </c>
       <c r="C49" s="4">
-        <v>531</v>
-      </c>
-      <c r="D49" s="12">
-        <v>433</v>
+        <v>282</v>
+      </c>
+      <c r="D49" s="10">
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>204</v>
+      <c r="A50" s="1">
+        <v>203</v>
       </c>
       <c r="B50" s="4">
         <v>451</v>
       </c>
       <c r="C50" s="4">
+        <v>531</v>
+      </c>
+      <c r="D50" s="10">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>204</v>
+      </c>
+      <c r="B51" s="12">
+        <v>860</v>
+      </c>
+      <c r="C51" s="4">
         <v>858</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="10">
         <v>729</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
         <v>205</v>
       </c>
-      <c r="B51" s="14">
-        <v>860</v>
-      </c>
-      <c r="C51" s="14">
+      <c r="B52" s="12">
+        <v>1206</v>
+      </c>
+      <c r="C52" s="12">
         <v>1239</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D52" s="8">
         <v>1148</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="8">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
         <v>206</v>
       </c>
-      <c r="B52" s="14">
-        <v>1206</v>
-      </c>
-      <c r="C52" s="14">
+      <c r="B53" s="12">
+        <v>1507</v>
+      </c>
+      <c r="C53" s="12">
         <v>1475</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D53" s="12">
         <v>1399</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
         <v>207</v>
       </c>
-      <c r="B53" s="14">
-        <v>1507</v>
-      </c>
-      <c r="C53" s="14">
+      <c r="B54" s="12">
+        <v>1491</v>
+      </c>
+      <c r="C54" s="12">
         <v>1497</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="12">
         <v>1491</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="8">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
         <v>208</v>
       </c>
-      <c r="B54" s="14">
-        <v>1491</v>
-      </c>
-      <c r="C54" s="14">
+      <c r="B55" s="12">
+        <v>1443</v>
+      </c>
+      <c r="C55" s="12">
         <v>1385</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D55" s="12">
         <v>1474</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
         <v>209</v>
       </c>
-      <c r="B55" s="14">
-        <v>1443</v>
-      </c>
-      <c r="C55" s="14">
+      <c r="B56" s="12">
+        <v>1087</v>
+      </c>
+      <c r="C56" s="12">
         <v>1101</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="12">
         <v>1212</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="8">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="7">
         <v>210</v>
       </c>
-      <c r="B56" s="14">
-        <v>1087</v>
-      </c>
-      <c r="C56" s="14">
+      <c r="B57" s="12">
+        <v>729</v>
+      </c>
+      <c r="C57" s="12">
         <v>673</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D57" s="12">
         <v>801</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
         <v>211</v>
       </c>
-      <c r="B57" s="14">
-        <v>729</v>
-      </c>
-      <c r="C57" s="14">
+      <c r="B58" s="12">
+        <v>465</v>
+      </c>
+      <c r="C58" s="12">
         <v>430</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="12">
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="8">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="7">
         <v>212</v>
       </c>
-      <c r="B58" s="14">
-        <v>465</v>
-      </c>
-      <c r="C58" s="14">
+      <c r="B59" s="12">
+        <v>240</v>
+      </c>
+      <c r="C59" s="12">
         <v>224</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D59" s="12">
         <v>278</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="8">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
         <v>213</v>
       </c>
-      <c r="B59" s="14">
-        <v>240</v>
-      </c>
-      <c r="C59" s="14">
+      <c r="B60" s="12">
+        <v>99</v>
+      </c>
+      <c r="C60" s="12">
         <v>79</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="12">
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="8">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="7">
         <v>214</v>
       </c>
-      <c r="B60" s="14">
-        <v>99</v>
-      </c>
-      <c r="C60" s="14">
+      <c r="B61" s="12">
+        <v>28</v>
+      </c>
+      <c r="C61" s="12">
         <v>27</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D61" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
         <v>215</v>
       </c>
-      <c r="B61" s="14">
-        <v>28</v>
-      </c>
-      <c r="C61" s="14">
+      <c r="B62" s="32">
+        <v>7</v>
+      </c>
+      <c r="C62" s="12">
         <v>4</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="33">
         <v>216</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B63" s="34">
         <v>3</v>
       </c>
-      <c r="C62" s="15">
+      <c r="C63" s="13">
         <v>4</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="30"/>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="22" t="s">
+      <c r="B67" s="25"/>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B68" s="20" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
+        <v>334</v>
+      </c>
+      <c r="B69" s="17">
+        <v>24</v>
+      </c>
+    </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="20">
-        <v>334</v>
-      </c>
-      <c r="B70" s="19">
-        <v>24</v>
+      <c r="A70" s="22">
+        <v>335</v>
+      </c>
+      <c r="B70" s="21">
+        <v>455</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="20">
-        <v>335</v>
-      </c>
-      <c r="B71" s="17">
-        <v>455</v>
+      <c r="A71" s="22">
+        <v>336</v>
+      </c>
+      <c r="B71" s="21">
+        <v>1455</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="20">
-        <v>336</v>
-      </c>
-      <c r="B72" s="17">
-        <v>1455</v>
+      <c r="A72" s="22">
+        <v>337</v>
+      </c>
+      <c r="B72" s="21">
+        <v>2061</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="20">
-        <v>337</v>
-      </c>
-      <c r="B73" s="17">
-        <v>2061</v>
+      <c r="A73" s="22">
+        <v>338</v>
+      </c>
+      <c r="B73" s="21">
+        <v>2051</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="20">
-        <v>338</v>
-      </c>
-      <c r="B74" s="17">
-        <v>2051</v>
+      <c r="A74" s="22">
+        <v>339</v>
+      </c>
+      <c r="B74" s="21">
+        <v>1522</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="20">
-        <v>339</v>
-      </c>
-      <c r="B75" s="17">
-        <v>1522</v>
+      <c r="A75" s="22">
+        <v>340</v>
+      </c>
+      <c r="B75" s="21">
+        <v>1076</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="20">
-        <v>340</v>
-      </c>
-      <c r="B76" s="17">
-        <v>1076</v>
+      <c r="A76" s="22">
+        <v>341</v>
+      </c>
+      <c r="B76" s="21">
+        <v>630</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="20">
-        <v>341</v>
-      </c>
-      <c r="B77" s="17">
-        <v>630</v>
+      <c r="A77" s="22">
+        <v>342</v>
+      </c>
+      <c r="B77" s="21">
+        <v>343</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="20">
-        <v>342</v>
-      </c>
-      <c r="B78" s="17">
+      <c r="A78" s="22">
         <v>343</v>
       </c>
+      <c r="B78" s="21">
+        <v>204</v>
+      </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="20">
-        <v>343</v>
-      </c>
-      <c r="B79" s="17">
-        <v>204</v>
+      <c r="A79" s="22">
+        <v>344</v>
+      </c>
+      <c r="B79" s="21">
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="20">
-        <v>344</v>
-      </c>
-      <c r="B80" s="17">
-        <v>89</v>
+      <c r="A80" s="22">
+        <v>345</v>
+      </c>
+      <c r="B80" s="21">
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="20">
-        <v>345</v>
-      </c>
-      <c r="B81" s="17">
-        <v>39</v>
+      <c r="A81" s="18">
+        <v>346</v>
+      </c>
+      <c r="B81" s="15">
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="20">
-        <v>346</v>
-      </c>
-      <c r="B82" s="17">
-        <v>34</v>
+      <c r="A82" s="18">
+        <v>347</v>
+      </c>
+      <c r="B82" s="15">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="20">
-        <v>347</v>
-      </c>
-      <c r="B83" s="17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="21">
+      <c r="A83" s="19">
         <v>348</v>
       </c>
-      <c r="B84" s="18">
+      <c r="B83" s="16">
         <v>5</v>
       </c>
     </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="30"/>
+      <c r="A88" s="22">
+        <v>500</v>
+      </c>
+      <c r="B88" s="11">
+        <v>279</v>
+      </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="22">
+        <v>501</v>
+      </c>
+      <c r="B89" s="12">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="22">
+        <v>502</v>
+      </c>
+      <c r="B90" s="12">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="22">
+        <v>503</v>
+      </c>
+      <c r="B91" s="21">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="22">
+        <v>504</v>
+      </c>
+      <c r="B92" s="21">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="22">
+        <v>505</v>
+      </c>
+      <c r="B93" s="21">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
+        <v>506</v>
+      </c>
+      <c r="B94" s="21">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="22">
+        <v>507</v>
+      </c>
+      <c r="B95" s="21">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="22">
+        <v>508</v>
+      </c>
+      <c r="B96" s="21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>509</v>
+      </c>
+      <c r="B97" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>510</v>
+      </c>
+      <c r="B98" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>511</v>
+      </c>
+      <c r="B99" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>512</v>
+      </c>
+      <c r="B100" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
+        <v>513</v>
+      </c>
+      <c r="B101" s="13">
         <v>1</v>
       </c>
-      <c r="B89" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="24">
-        <v>500</v>
-      </c>
-      <c r="B90" s="13">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="24">
-        <v>501</v>
-      </c>
-      <c r="B91" s="14">
-        <v>2102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="24">
-        <v>502</v>
-      </c>
-      <c r="B92" s="14">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="24">
-        <v>503</v>
-      </c>
-      <c r="B93" s="23">
-        <v>2165</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="24">
-        <v>504</v>
-      </c>
-      <c r="B94" s="23">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="24">
-        <v>505</v>
-      </c>
-      <c r="B95" s="23">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="24">
-        <v>506</v>
-      </c>
-      <c r="B96" s="23">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="24">
-        <v>507</v>
-      </c>
-      <c r="B97" s="23">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="24">
-        <v>508</v>
-      </c>
-      <c r="B98" s="23">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="8">
-        <v>509</v>
-      </c>
-      <c r="B99" s="14">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="8">
-        <v>510</v>
-      </c>
-      <c r="B100" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="8">
-        <v>511</v>
-      </c>
-      <c r="B101" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="8">
-        <v>512</v>
-      </c>
-      <c r="B102" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="25">
-        <v>513</v>
-      </c>
-      <c r="B103" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
-      <c r="B104" s="7"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A88:B88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7435,7 +7437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DD90B-2628-4838-A9AC-E6F0D406D61E}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7447,155 +7449,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="41"/>
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="26">
         <v>63</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="27">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="30">
         <v>63</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="29">
         <v>1632</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="26">
         <v>63</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="27">
         <v>1540</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="39"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="38" t="s">
+      <c r="A9" s="41"/>
+      <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="26">
         <v>98</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="27">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="26">
         <v>98</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="29">
         <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="26">
         <v>98</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="27">
         <v>7999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="38" t="s">
+      <c r="A16" s="41"/>
+      <c r="B16" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="26">
         <v>194</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="27">
         <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="26">
         <v>198</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="29">
         <v>6675</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="26">
         <v>197</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="27">
         <v>6615</v>
       </c>
     </row>
@@ -7603,64 +7605,62 @@
       <c r="A22" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="39"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="26">
         <v>334</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="27">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="39"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="41"/>
+      <c r="B28" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="26">
         <v>500</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="27">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="A27:A28"/>
@@ -7669,6 +7669,8 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentacion/Graficos.xlsx
+++ b/Documentacion/Graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Documents\GitHub\Grafos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CBF3AF-FD80-4A30-A1D8-1F9C16E75EA2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1189E0F3-CFA4-4679-9469-24EBB1F7374B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos con porcentajes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="13">
   <si>
     <t>Grafo Aleatorio 40% de Adyacencia</t>
   </si>
@@ -106,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,19 +133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -392,15 +386,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -411,6 +399,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,10 +412,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,13 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{F14B2390-0FBB-416C-AC4E-881F8B63CC7A}"/>
@@ -6501,8 +6489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD1E85-97CD-4BC2-AE1A-F439378BABC2}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L90" sqref="L90"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6514,12 +6502,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -6662,12 +6650,12 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
@@ -6852,12 +6840,12 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
@@ -6874,7 +6862,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="45">
+      <c r="A43" s="33">
         <v>194</v>
       </c>
       <c r="B43" s="11">
@@ -6883,7 +6871,7 @@
       <c r="C43" s="11">
         <v>0</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="34">
         <v>0</v>
       </c>
     </row>
@@ -6894,10 +6882,10 @@
       <c r="B44" s="4">
         <v>1</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="36">
         <v>0</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D44" s="35">
         <v>1</v>
       </c>
     </row>
@@ -7143,7 +7131,7 @@
       <c r="A62" s="7">
         <v>215</v>
       </c>
-      <c r="B62" s="32">
+      <c r="B62" s="30">
         <v>7</v>
       </c>
       <c r="C62" s="12">
@@ -7154,10 +7142,10 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="33">
+      <c r="A63" s="31">
         <v>216</v>
       </c>
-      <c r="B63" s="34">
+      <c r="B63" s="32">
         <v>3</v>
       </c>
       <c r="C63" s="13">
@@ -7168,10 +7156,10 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
+      <c r="A67" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="25"/>
+      <c r="B67" s="39"/>
     </row>
     <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -7301,6 +7289,12 @@
         <v>5</v>
       </c>
     </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="39"/>
+    </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>1</v>
@@ -7422,10 +7416,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A86:B86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -7437,8 +7433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DD90B-2628-4838-A9AC-E6F0D406D61E}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7449,17 +7445,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
+      <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
@@ -7467,50 +7463,50 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>63</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="25">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>63</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="27">
         <v>1632</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="24">
         <v>63</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="25">
         <v>1540</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="39"/>
+      <c r="C8" s="41"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="31" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -7518,50 +7514,50 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>98</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>98</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="27">
         <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <v>98</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <v>7999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="39"/>
+      <c r="C15" s="41"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="31" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -7569,50 +7565,50 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="24">
         <v>194</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="24">
         <v>198</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="27">
         <v>6675</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="24">
         <v>197</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="25">
         <v>6615</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="39"/>
+      <c r="C22" s="41"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="31" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
@@ -7620,28 +7616,28 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>334</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="25">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="39"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -7649,13 +7645,13 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <v>500</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="25">
         <v>10</v>
       </c>
     </row>

--- a/Documentacion/Graficos.xlsx
+++ b/Documentacion/Graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Documents\GitHub\Grafos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1189E0F3-CFA4-4679-9469-24EBB1F7374B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B50B8AA-E195-48BB-B43A-75F827791926}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos con porcentajes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
   <si>
     <t>Grafo Aleatorio 40% de Adyacencia</t>
   </si>
@@ -412,13 +412,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -427,10 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -865,6 +865,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad de colores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -930,6 +985,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1504,6 +1617,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad de colores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1570,6 +1738,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2295,6 +2518,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad de colores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2360,6 +2638,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2706,6 +3039,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad de colores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2771,6 +3159,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3080,6 +3523,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Cantidad de colores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3145,6 +3643,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6010,13 +6563,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -6489,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD1E85-97CD-4BC2-AE1A-F439378BABC2}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7433,7 +7986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DD90B-2628-4838-A9AC-E6F0D406D61E}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7445,16 +7998,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="C1" s="43"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+      <c r="A2" s="45"/>
       <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
@@ -7496,16 +8049,16 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="43"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="29" t="s">
         <v>11</v>
       </c>
@@ -7547,16 +8100,16 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="43"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="29" t="s">
         <v>11</v>
       </c>
@@ -7598,16 +8151,16 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="41"/>
+      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="29" t="s">
         <v>11</v>
       </c>
@@ -7627,16 +8180,16 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="41"/>
+      <c r="C27" s="43"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="29" t="s">
         <v>11</v>
       </c>

--- a/Documentacion/Graficos.xlsx
+++ b/Documentacion/Graficos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Documents\GitHub\Grafos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B50B8AA-E195-48BB-B43A-75F827791926}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883CA231-EC8B-4B04-800E-95094D98D878}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos con porcentajes" sheetId="1" r:id="rId1"/>
@@ -58,13 +58,13 @@
     <t>Grafo Regular 75% de Adyacencia</t>
   </si>
   <si>
-    <t>Corrida que aparecio por primera vez</t>
+    <t>Algoritmo</t>
   </si>
   <si>
-    <t>Menor Cantidad de Colores</t>
+    <t>Cantidad de Colores Mínima</t>
   </si>
   <si>
-    <t>Algoritmo</t>
+    <t>Nº de Corrida</t>
   </si>
 </sst>
 </file>
@@ -7042,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD1E85-97CD-4BC2-AE1A-F439378BABC2}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7986,20 +7986,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DD90B-2628-4838-A9AC-E6F0D406D61E}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="1" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="42" t="s">
         <v>0</v>
@@ -8012,7 +8011,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -8050,7 +8049,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="42" t="s">
         <v>5</v>
@@ -8063,7 +8062,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8101,7 +8100,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="42" t="s">
         <v>6</v>
@@ -8114,7 +8113,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8152,7 +8151,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="42" t="s">
         <v>7</v>
@@ -8165,7 +8164,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8181,7 +8180,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B27" s="46" t="s">
         <v>9</v>
@@ -8194,7 +8193,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">

--- a/Documentacion/Graficos.xlsx
+++ b/Documentacion/Graficos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Documents\GitHub\Grafos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883CA231-EC8B-4B04-800E-95094D98D878}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9D2AF6-15F1-47FF-A9E2-7907ECD6C984}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
   </bookViews>
@@ -7042,8 +7042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD1E85-97CD-4BC2-AE1A-F439378BABC2}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection sqref="A1:D11"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7986,13 +7986,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DD90B-2628-4838-A9AC-E6F0D406D61E}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Documentacion/Graficos.xlsx
+++ b/Documentacion/Graficos.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Documents\GitHub\Grafos\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Documents\GitHub\Grafos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9D2AF6-15F1-47FF-A9E2-7907ECD6C984}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99662179-7F5B-46B8-BA66-302CFAAA2DA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos con porcentajes" sheetId="1" r:id="rId1"/>
-    <sheet name="Numero de corrida minimo" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Numero de corrida minimo" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -72,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -144,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -259,19 +260,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -282,15 +270,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -343,21 +322,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -366,12 +336,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,7 +353,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -396,12 +364,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,10 +376,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -424,10 +388,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +485,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -916,7 +880,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -954,7 +918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168134032"/>
@@ -1039,7 +1003,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1071,7 +1035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39416000"/>
@@ -1113,7 +1077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1143,7 +1107,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1219,7 +1183,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1668,7 +1632,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1706,7 +1670,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168135696"/>
@@ -1789,7 +1753,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1821,7 +1785,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38088384"/>
@@ -1864,7 +1828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1894,7 +1858,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1970,7 +1934,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2008,10 +1972,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$A$44:$A$63</c:f>
+              <c:f>'Graficos con porcentajes'!$A$44:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>197</c:v>
                 </c:pt>
@@ -2071,6 +2035,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,10 +2152,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$A$44:$A$63</c:f>
+              <c:f>'Graficos con porcentajes'!$A$44:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>197</c:v>
                 </c:pt>
@@ -2245,6 +2215,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,61 +2238,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>282</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>531</c:v>
+                  <c:v>428</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>858</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1239</c:v>
+                  <c:v>1138</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1475</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1497</c:v>
+                  <c:v>1541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1385</c:v>
+                  <c:v>1513</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1101</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>673</c:v>
+                  <c:v>818</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>430</c:v>
+                  <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>224</c:v>
+                  <c:v>253</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,10 +2332,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Graficos con porcentajes'!$A$44:$A$63</c:f>
+              <c:f>'Graficos con porcentajes'!$A$44:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>197</c:v>
                 </c:pt>
@@ -2419,6 +2395,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,61 +2415,61 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>433</c:v>
+                  <c:v>675</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>729</c:v>
+                  <c:v>1025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1148</c:v>
+                  <c:v>1375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1399</c:v>
+                  <c:v>1502</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1491</c:v>
+                  <c:v>1510</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1474</c:v>
+                  <c:v>1237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1212</c:v>
+                  <c:v>921</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>801</c:v>
+                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>492</c:v>
+                  <c:v>298</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>278</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>104</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,7 +2551,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2607,7 +2589,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168132784"/>
@@ -2689,7 +2671,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2721,7 +2703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="35487344"/>
@@ -2763,7 +2745,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2793,7 +2775,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2869,7 +2851,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3090,7 +3072,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3128,7 +3110,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="417874959"/>
@@ -3210,7 +3192,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3242,7 +3224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="422714335"/>
@@ -3283,7 +3265,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3359,7 +3341,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-AR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3574,7 +3556,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3612,7 +3594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177816991"/>
@@ -3694,7 +3676,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-AR"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3726,7 +3708,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="181674559"/>
@@ -3767,7 +3749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-AR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7042,8 +7024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD1E85-97CD-4BC2-AE1A-F439378BABC2}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:B83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7055,24 +7037,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7203,24 +7185,24 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7228,13 +7210,13 @@
       <c r="A24" s="1">
         <v>98</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="9">
         <v>3</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <v>3</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="9">
         <v>1</v>
       </c>
     </row>
@@ -7340,13 +7322,13 @@
       <c r="A32" s="7">
         <v>106</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="10">
         <v>592</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>586</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>662</v>
       </c>
     </row>
@@ -7354,13 +7336,13 @@
       <c r="A33" s="7">
         <v>107</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="10">
         <v>156</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>151</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>175</v>
       </c>
     </row>
@@ -7368,63 +7350,63 @@
       <c r="A34" s="7">
         <v>108</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="10">
         <v>27</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>30</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>109</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>4</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="11">
         <v>1</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="11">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="39"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="A43" s="28">
         <v>194</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>1</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <v>0</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="29">
         <v>0</v>
       </c>
     </row>
@@ -7435,496 +7417,524 @@
       <c r="B44" s="4">
         <v>1</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="30">
         <v>0</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="20">
         <v>198</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="19">
         <v>6</v>
       </c>
-      <c r="C45" s="4">
-        <v>4</v>
-      </c>
-      <c r="D45" s="17">
+      <c r="C45" s="30">
         <v>1</v>
       </c>
+      <c r="D45" s="30">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="A46" s="20">
         <v>199</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="19">
         <v>13</v>
       </c>
-      <c r="C46" s="4">
-        <v>14</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="C46" s="30">
         <v>11</v>
       </c>
+      <c r="D46" s="30">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="20">
         <v>200</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="19">
         <v>34</v>
       </c>
-      <c r="C47" s="10">
-        <v>38</v>
-      </c>
-      <c r="D47" s="4">
-        <v>27</v>
+      <c r="C47" s="30">
+        <v>33</v>
+      </c>
+      <c r="D47" s="30">
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="A48" s="20">
         <v>201</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="19">
         <v>96</v>
       </c>
-      <c r="C48" s="4">
-        <v>135</v>
-      </c>
-      <c r="D48" s="10">
-        <v>103</v>
+      <c r="C48" s="30">
+        <v>83</v>
+      </c>
+      <c r="D48" s="30">
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="20">
         <v>202</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="19">
         <v>233</v>
       </c>
-      <c r="C49" s="4">
-        <v>282</v>
-      </c>
-      <c r="D49" s="10">
-        <v>220</v>
+      <c r="C49" s="30">
+        <v>222</v>
+      </c>
+      <c r="D49" s="30">
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="A50" s="20">
         <v>203</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="19">
         <v>451</v>
       </c>
-      <c r="C50" s="4">
-        <v>531</v>
-      </c>
-      <c r="D50" s="10">
-        <v>433</v>
+      <c r="C50" s="30">
+        <v>428</v>
+      </c>
+      <c r="D50" s="30">
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="20">
         <v>204</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="19">
         <v>860</v>
       </c>
-      <c r="C51" s="4">
-        <v>858</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="C51" s="30">
+        <v>753</v>
+      </c>
+      <c r="D51" s="30">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>205</v>
+      </c>
+      <c r="B52" s="19">
+        <v>1206</v>
+      </c>
+      <c r="C52" s="30">
+        <v>1138</v>
+      </c>
+      <c r="D52" s="30">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>206</v>
+      </c>
+      <c r="B53" s="19">
+        <v>1507</v>
+      </c>
+      <c r="C53" s="30">
+        <v>1360</v>
+      </c>
+      <c r="D53" s="30">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>207</v>
+      </c>
+      <c r="B54" s="19">
+        <v>1491</v>
+      </c>
+      <c r="C54" s="30">
+        <v>1541</v>
+      </c>
+      <c r="D54" s="30">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>208</v>
+      </c>
+      <c r="B55" s="19">
+        <v>1443</v>
+      </c>
+      <c r="C55" s="30">
+        <v>1513</v>
+      </c>
+      <c r="D55" s="30">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>209</v>
+      </c>
+      <c r="B56" s="19">
+        <v>1087</v>
+      </c>
+      <c r="C56" s="30">
+        <v>1154</v>
+      </c>
+      <c r="D56" s="30">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <v>210</v>
+      </c>
+      <c r="B57" s="19">
         <v>729</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>205</v>
-      </c>
-      <c r="B52" s="12">
-        <v>1206</v>
-      </c>
-      <c r="C52" s="12">
-        <v>1239</v>
-      </c>
-      <c r="D52" s="8">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>206</v>
-      </c>
-      <c r="B53" s="12">
-        <v>1507</v>
-      </c>
-      <c r="C53" s="12">
-        <v>1475</v>
-      </c>
-      <c r="D53" s="12">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>207</v>
-      </c>
-      <c r="B54" s="12">
-        <v>1491</v>
-      </c>
-      <c r="C54" s="12">
-        <v>1497</v>
-      </c>
-      <c r="D54" s="12">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>208</v>
-      </c>
-      <c r="B55" s="12">
-        <v>1443</v>
-      </c>
-      <c r="C55" s="12">
-        <v>1385</v>
-      </c>
-      <c r="D55" s="12">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>209</v>
-      </c>
-      <c r="B56" s="12">
-        <v>1087</v>
-      </c>
-      <c r="C56" s="12">
-        <v>1101</v>
-      </c>
-      <c r="D56" s="12">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>210</v>
-      </c>
-      <c r="B57" s="12">
-        <v>729</v>
-      </c>
-      <c r="C57" s="12">
-        <v>673</v>
-      </c>
-      <c r="D57" s="12">
-        <v>801</v>
+      <c r="C57" s="30">
+        <v>818</v>
+      </c>
+      <c r="D57" s="30">
+        <v>523</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
+      <c r="A58" s="20">
         <v>211</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="19">
         <v>465</v>
       </c>
-      <c r="C58" s="12">
-        <v>430</v>
-      </c>
-      <c r="D58" s="12">
-        <v>492</v>
+      <c r="C58" s="30">
+        <v>502</v>
+      </c>
+      <c r="D58" s="30">
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
+      <c r="A59" s="20">
         <v>212</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="19">
         <v>240</v>
       </c>
-      <c r="C59" s="12">
-        <v>224</v>
-      </c>
-      <c r="D59" s="12">
-        <v>278</v>
+      <c r="C59" s="30">
+        <v>253</v>
+      </c>
+      <c r="D59" s="30">
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
+      <c r="A60" s="20">
         <v>213</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="19">
         <v>99</v>
       </c>
-      <c r="C60" s="12">
-        <v>79</v>
-      </c>
-      <c r="D60" s="12">
-        <v>104</v>
+      <c r="C60" s="30">
+        <v>118</v>
+      </c>
+      <c r="D60" s="30">
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
+      <c r="A61" s="20">
         <v>214</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="19">
         <v>28</v>
       </c>
-      <c r="C61" s="12">
-        <v>27</v>
-      </c>
-      <c r="D61" s="12">
-        <v>57</v>
+      <c r="C61" s="30">
+        <v>49</v>
+      </c>
+      <c r="D61" s="30">
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
+      <c r="A62" s="20">
         <v>215</v>
       </c>
-      <c r="B62" s="30">
+      <c r="B62" s="19">
         <v>7</v>
       </c>
-      <c r="C62" s="12">
-        <v>4</v>
-      </c>
-      <c r="D62" s="12">
-        <v>18</v>
+      <c r="C62" s="30">
+        <v>16</v>
+      </c>
+      <c r="D62" s="30">
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="31">
+      <c r="A63" s="20">
         <v>216</v>
       </c>
-      <c r="B63" s="32">
+      <c r="B63" s="19">
         <v>3</v>
       </c>
-      <c r="C63" s="13">
-        <v>4</v>
-      </c>
-      <c r="D63" s="13">
+      <c r="C63" s="30">
+        <v>3</v>
+      </c>
+      <c r="D63" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>217</v>
+      </c>
+      <c r="B64" s="19">
+        <v>0</v>
+      </c>
+      <c r="C64" s="30">
+        <v>3</v>
+      </c>
+      <c r="D64" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="20">
+        <v>218</v>
+      </c>
+      <c r="B65" s="19">
+        <v>0</v>
+      </c>
+      <c r="C65" s="30">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
+      <c r="D65" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B67" s="39"/>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="20" t="s">
+      <c r="B67" s="33"/>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="20">
         <v>334</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="15">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="20">
         <v>335</v>
       </c>
-      <c r="B70" s="21">
+      <c r="B70" s="19">
         <v>455</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="20">
         <v>336</v>
       </c>
-      <c r="B71" s="21">
+      <c r="B71" s="19">
         <v>1455</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="20">
         <v>337</v>
       </c>
-      <c r="B72" s="21">
+      <c r="B72" s="19">
         <v>2061</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="20">
         <v>338</v>
       </c>
-      <c r="B73" s="21">
+      <c r="B73" s="19">
         <v>2051</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="22">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="20">
         <v>339</v>
       </c>
-      <c r="B74" s="21">
+      <c r="B74" s="19">
         <v>1522</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="20">
         <v>340</v>
       </c>
-      <c r="B75" s="21">
+      <c r="B75" s="19">
         <v>1076</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="20">
         <v>341</v>
       </c>
-      <c r="B76" s="21">
+      <c r="B76" s="19">
         <v>630</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="20">
         <v>342</v>
       </c>
-      <c r="B77" s="21">
+      <c r="B77" s="19">
         <v>343</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="20">
         <v>343</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="19">
         <v>204</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="20">
         <v>344</v>
       </c>
-      <c r="B79" s="21">
+      <c r="B79" s="19">
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="20">
         <v>345</v>
       </c>
-      <c r="B80" s="21">
+      <c r="B80" s="19">
         <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="18">
+      <c r="A81" s="16">
         <v>346</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="13">
         <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="18">
+      <c r="A82" s="16">
         <v>347</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="13">
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="19">
+      <c r="A83" s="17">
         <v>348</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="14">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="39"/>
+      <c r="B86" s="33"/>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="22">
+      <c r="A88" s="20">
         <v>500</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="9">
         <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="22">
+      <c r="A89" s="20">
         <v>501</v>
       </c>
-      <c r="B89" s="12">
+      <c r="B89" s="10">
         <v>2102</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="22">
+      <c r="A90" s="20">
         <v>502</v>
       </c>
-      <c r="B90" s="12">
+      <c r="B90" s="10">
         <v>2635</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="22">
+      <c r="A91" s="20">
         <v>503</v>
       </c>
-      <c r="B91" s="21">
+      <c r="B91" s="19">
         <v>2165</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="22">
+      <c r="A92" s="20">
         <v>504</v>
       </c>
-      <c r="B92" s="21">
+      <c r="B92" s="19">
         <v>1346</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="22">
+      <c r="A93" s="20">
         <v>505</v>
       </c>
-      <c r="B93" s="21">
+      <c r="B93" s="19">
         <v>782</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="22">
+      <c r="A94" s="20">
         <v>506</v>
       </c>
-      <c r="B94" s="21">
+      <c r="B94" s="19">
         <v>380</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="22">
+      <c r="A95" s="20">
         <v>507</v>
       </c>
-      <c r="B95" s="21">
+      <c r="B95" s="19">
         <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="22">
+      <c r="A96" s="20">
         <v>508</v>
       </c>
-      <c r="B96" s="21">
+      <c r="B96" s="19">
         <v>79</v>
       </c>
     </row>
@@ -7932,7 +7942,7 @@
       <c r="A97" s="7">
         <v>509</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="10">
         <v>64</v>
       </c>
     </row>
@@ -7940,7 +7950,7 @@
       <c r="A98" s="7">
         <v>510</v>
       </c>
-      <c r="B98" s="12">
+      <c r="B98" s="10">
         <v>11</v>
       </c>
     </row>
@@ -7948,7 +7958,7 @@
       <c r="A99" s="7">
         <v>511</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="10">
         <v>7</v>
       </c>
     </row>
@@ -7956,15 +7966,15 @@
       <c r="A100" s="7">
         <v>512</v>
       </c>
-      <c r="B100" s="12">
+      <c r="B100" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="23">
+      <c r="A101" s="21">
         <v>513</v>
       </c>
-      <c r="B101" s="13">
+      <c r="B101" s="11">
         <v>1</v>
       </c>
     </row>
@@ -7983,11 +7993,257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED5A711-4C19-4C94-A234-E16E8C8D0ADB}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>198</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>199</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>201</v>
+      </c>
+      <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>202</v>
+      </c>
+      <c r="B5">
+        <v>222</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>203</v>
+      </c>
+      <c r="B6">
+        <v>428</v>
+      </c>
+      <c r="C6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>204</v>
+      </c>
+      <c r="B7">
+        <v>753</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>205</v>
+      </c>
+      <c r="B8">
+        <v>1138</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>206</v>
+      </c>
+      <c r="B9">
+        <v>1360</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>207</v>
+      </c>
+      <c r="B10">
+        <v>1541</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>208</v>
+      </c>
+      <c r="B11">
+        <v>1513</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>209</v>
+      </c>
+      <c r="B12">
+        <v>1154</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>210</v>
+      </c>
+      <c r="B13">
+        <v>818</v>
+      </c>
+      <c r="C13">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>211</v>
+      </c>
+      <c r="B14">
+        <v>502</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>212</v>
+      </c>
+      <c r="B15">
+        <v>253</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>213</v>
+      </c>
+      <c r="B16">
+        <v>118</v>
+      </c>
+      <c r="C16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>214</v>
+      </c>
+      <c r="B17">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>215</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>216</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>217</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>218</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>4274</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DD90B-2628-4838-A9AC-E6F0D406D61E}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7998,213 +8254,213 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="22">
         <v>63</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>63</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="25">
         <v>1632</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>63</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="23">
         <v>1540</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="37"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="29" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="22">
         <v>98</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="23">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>98</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="22">
         <v>98</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="23">
         <v>7999</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="43"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="29" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="22">
         <v>194</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="23">
         <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="22">
         <v>198</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="25">
         <v>6675</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>197</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="23">
         <v>6615</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="29" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="22">
         <v>334</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="23">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="37"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="29" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="22">
         <v>500</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29" s="23">
         <v>10</v>
       </c>
     </row>

--- a/Documentacion/Graficos.xlsx
+++ b/Documentacion/Graficos.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Documents\GitHub\Grafos\Documentacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianPerez\Documents\GitHub\Grafos\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99662179-7F5B-46B8-BA66-302CFAAA2DA3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3C4889-5388-48F2-BA76-8EAD6BEFE328}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="1" xr2:uid="{DDF23A34-39FB-41E7-8C24-642D54873EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Graficos con porcentajes" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Numero de corrida minimo" sheetId="2" r:id="rId3"/>
+    <sheet name="Numero de corrida minimo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -73,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -325,7 +324,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -485,7 +484,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -880,7 +879,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -918,7 +917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168134032"/>
@@ -1003,7 +1002,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1035,7 +1034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="39416000"/>
@@ -1077,7 +1076,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1107,7 +1106,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1183,7 +1182,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1632,7 +1631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1670,7 +1669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168135696"/>
@@ -1753,7 +1752,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1785,7 +1784,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="38088384"/>
@@ -1828,7 +1827,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1858,7 +1857,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1934,7 +1933,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2551,7 +2550,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2589,7 +2588,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="168132784"/>
@@ -2671,7 +2670,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2703,7 +2702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="35487344"/>
@@ -2745,7 +2744,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2775,7 +2774,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2851,7 +2850,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3072,7 +3071,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3110,7 +3109,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="417874959"/>
@@ -3192,7 +3191,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3224,7 +3223,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="422714335"/>
@@ -3265,7 +3264,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3341,7 +3340,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3556,7 +3555,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3594,7 +3593,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="177816991"/>
@@ -3676,7 +3675,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-AR"/>
+              <a:endParaRPr lang="es-ES"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3708,7 +3707,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-AR"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="181674559"/>
@@ -3749,7 +3748,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-AR"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7024,7 +7023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FD1E85-97CD-4BC2-AE1A-F439378BABC2}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -7993,257 +7992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED5A711-4C19-4C94-A234-E16E8C8D0ADB}">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>198</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>199</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>2223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>200</v>
-      </c>
-      <c r="B3">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>201</v>
-      </c>
-      <c r="B4">
-        <v>83</v>
-      </c>
-      <c r="C4">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>202</v>
-      </c>
-      <c r="B5">
-        <v>222</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>203</v>
-      </c>
-      <c r="B6">
-        <v>428</v>
-      </c>
-      <c r="C6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>204</v>
-      </c>
-      <c r="B7">
-        <v>753</v>
-      </c>
-      <c r="C7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>205</v>
-      </c>
-      <c r="B8">
-        <v>1138</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>206</v>
-      </c>
-      <c r="B9">
-        <v>1360</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>207</v>
-      </c>
-      <c r="B10">
-        <v>1541</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>208</v>
-      </c>
-      <c r="B11">
-        <v>1513</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>209</v>
-      </c>
-      <c r="B12">
-        <v>1154</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>210</v>
-      </c>
-      <c r="B13">
-        <v>818</v>
-      </c>
-      <c r="C13">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>211</v>
-      </c>
-      <c r="B14">
-        <v>502</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>212</v>
-      </c>
-      <c r="B15">
-        <v>253</v>
-      </c>
-      <c r="C15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>213</v>
-      </c>
-      <c r="B16">
-        <v>118</v>
-      </c>
-      <c r="C16">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>214</v>
-      </c>
-      <c r="B17">
-        <v>49</v>
-      </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>215</v>
-      </c>
-      <c r="B18">
-        <v>16</v>
-      </c>
-      <c r="C18">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>216</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>5657</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>217</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>2089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>218</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>4274</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542DD90B-2628-4838-A9AC-E6F0D406D61E}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8392,7 +8145,7 @@
         <v>198</v>
       </c>
       <c r="C18" s="25">
-        <v>6675</v>
+        <v>994</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8403,7 +8156,7 @@
         <v>197</v>
       </c>
       <c r="C19" s="23">
-        <v>6615</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
